--- a/Input/GIG/benefits.xlsx
+++ b/Input/GIG/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="123">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -178,23 +178,7 @@
     <t xml:space="preserve">AED 7,500,000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Worldwide excluding USA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*Emergency Outside Area of Cover (Worldwide) - AED 750,000</t>
-    </r>
+    <t xml:space="preserve">Worldwide excluding USA *Emergency Outside Area of Cover (Worldwide) - AED 750,000</t>
   </si>
   <si>
     <t xml:space="preserve">AXA Gulf - (IP) AXA 1 _ (OP) AXA 1</t>
@@ -273,9 +257,6 @@
     <t xml:space="preserve">10%/</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide excluding USA *Emergency Outside Area of Cover (Worldwide) - AED 750,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-01-01</t>
   </si>
   <si>
@@ -335,16 +316,13 @@
     <t xml:space="preserve">20%/</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE plus any one of India, Pakistan, Sri Lanka, Bangladesh, the Philippines, Nepal &amp; Bhutan being your home country  *Emergency Outside Area of Cover (Worldwide)- AED 50,000</t>
+    <t xml:space="preserve">UAE plus any one of India, Pakistan, Sri Lanka, Bangladesh, the Philippines, Nepal &amp; Bhutan being your home country *Emergency Outside Area of Cover (Worldwide)- AED 50,000</t>
   </si>
   <si>
     <t xml:space="preserve">Smart Health - Gold</t>
   </si>
   <si>
     <t xml:space="preserve">AED 500,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAE plus any one of India, Pakistan, Sri Lanka, Bangladesh, the Philippines, Nepal &amp; Bhutan being your home country *Emergency Outside Area of Cover (Worldwide)- AED 50,000</t>
   </si>
   <si>
     <t xml:space="preserve">AXA Gulf - (IP) AXA 3 _ (OP) AXA 4</t>
@@ -442,7 +420,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -469,11 +447,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -518,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -532,10 +506,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,16 +532,18 @@
   </sheetPr>
   <dimension ref="A1:AZ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY6" activeCellId="0" sqref="AX6:AY6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AU3" activeCellId="0" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="46" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="31.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="48" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +707,7 @@
       <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -850,50 +822,50 @@
       <c r="AS2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AT2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AW2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="192.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>56</v>
@@ -936,7 +908,7 @@
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>65</v>
@@ -949,32 +921,32 @@
       </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AF3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="AL3" s="2"/>
       <c r="AM3" s="1" t="s">
@@ -994,11 +966,11 @@
       <c r="AS3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AT3" s="5" t="s">
+      <c r="AT3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
@@ -1008,26 +980,26 @@
     </row>
     <row r="4" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>56</v>
@@ -1070,7 +1042,7 @@
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>65</v>
@@ -1083,32 +1055,32 @@
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AF4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="1" t="s">
@@ -1129,8 +1101,8 @@
         <v>74</v>
       </c>
       <c r="AT4" s="2"/>
-      <c r="AU4" s="4" t="s">
-        <v>84</v>
+      <c r="AU4" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -1140,26 +1112,26 @@
     </row>
     <row r="5" customFormat="false" ht="159" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>56</v>
@@ -1202,7 +1174,7 @@
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>65</v>
@@ -1215,7 +1187,7 @@
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>74</v>
@@ -1228,10 +1200,10 @@
         <v>58</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>57</v>
@@ -1240,7 +1212,7 @@
         <v>72</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="1" t="s">
@@ -1262,7 +1234,7 @@
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1272,26 +1244,26 @@
     </row>
     <row r="6" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>56</v>
@@ -1300,7 +1272,7 @@
         <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>57</v>
@@ -1312,29 +1284,29 @@
         <v>58</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>65</v>
@@ -1347,7 +1319,7 @@
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>74</v>
@@ -1360,7 +1332,7 @@
         <v>58</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>58</v>
@@ -1393,8 +1365,8 @@
         <v>74</v>
       </c>
       <c r="AT6" s="2"/>
-      <c r="AU6" s="4" t="s">
-        <v>109</v>
+      <c r="AU6" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
